--- a/Test/BO/MSE_125.xlsx
+++ b/Test/BO/MSE_125.xlsx
@@ -423,34 +423,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.05122743257255512</v>
+        <v>0.009371045296814293</v>
       </c>
       <c r="B1" t="n">
-        <v>0.02568220667761856</v>
+        <v>0.03158469667430089</v>
       </c>
       <c r="C1" t="n">
-        <v>0.01061113000643992</v>
+        <v>0.01033452074479177</v>
       </c>
       <c r="D1" t="n">
-        <v>0.03519646465913923</v>
+        <v>0.02812584984434832</v>
       </c>
       <c r="E1" t="n">
-        <v>0.01318119856166484</v>
+        <v>0.01300488339216437</v>
       </c>
       <c r="F1" t="n">
-        <v>0.05487282462693382</v>
+        <v>0.02057369575008872</v>
       </c>
       <c r="G1" t="n">
-        <v>0.01935043568739497</v>
+        <v>0.01195252637136577</v>
       </c>
       <c r="H1" t="n">
-        <v>0.01469843426230985</v>
+        <v>0.02508591332584466</v>
       </c>
       <c r="I1" t="n">
-        <v>0.06261695739503083</v>
+        <v>0.05117894680263912</v>
       </c>
       <c r="J1" t="n">
-        <v>0.03958098311030014</v>
+        <v>0.01175557461616214</v>
       </c>
     </row>
   </sheetData>
